--- a/predictions/single/RandomForestRegressor/Ictus.xlsx
+++ b/predictions/single/RandomForestRegressor/Ictus.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4120289675176794</v>
+        <v>0.4114166414148528</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9918753528785044</v>
+        <v>0.9918874271109029</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/RandomForestRegressor/Ictus.xlsx
+++ b/predictions/single/RandomForestRegressor/Ictus.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4114166414148528</v>
+        <v>0.4098112707153956</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9918874271109029</v>
+        <v>0.9919190828231478</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/RandomForestRegressor/Ictus.xlsx
+++ b/predictions/single/RandomForestRegressor/Ictus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4098112707153956</v>
+        <v>0.4140520323401509</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9919190828231478</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9918354608100279</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4938974175076344</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
         </is>

--- a/predictions/single/RandomForestRegressor/Ictus.xlsx
+++ b/predictions/single/RandomForestRegressor/Ictus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4140520323401509</v>
+        <v>0.4161312050481046</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9918354608100279</v>
+        <v>0.9917944623708683</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4938974175076344</v>
+        <v>0.4987128619250442</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=3, n_estimators=50))])</t>
         </is>
       </c>
     </row>

--- a/predictions/single/RandomForestRegressor/Ictus.xlsx
+++ b/predictions/single/RandomForestRegressor/Ictus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4161312050481046</v>
+        <v>0.4124328550386086</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9917944623708683</v>
+        <v>0.9918673887695629</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4987128619250442</v>
+        <v>0.4947339447595301</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -487,8 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=3, n_estimators=50))])</t>
-        </is>
+          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=3))])</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1218615918667638</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.991</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/RandomForestRegressor/Ictus.xlsx
+++ b/predictions/single/RandomForestRegressor/Ictus.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4124328550386086</v>
+        <v>0.412364803636565</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9918673887695629</v>
+        <v>0.9918687306500406</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4947339447595301</v>
+        <v>0.4945772215789611</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,14 +497,15 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=3))])</t>
+          <t>Pipeline(steps=[('model',
+                 RandomForestRegressor(max_depth=3, n_estimators=150))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1218615918667638</v>
+        <v>0.1259496415167329</v>
       </c>
       <c r="H2" t="n">
-        <v>0.991</v>
+        <v>0.9840000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/RandomForestRegressor/Ictus.xlsx
+++ b/predictions/single/RandomForestRegressor/Ictus.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.412364803636565</v>
+        <v>0.4146968223820794</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9918687306500406</v>
+        <v>0.9918227464331973</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4945772215789611</v>
+        <v>0.4952318647003984</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,15 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model',
-                 RandomForestRegressor(max_depth=3, n_estimators=150))])</t>
+          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=3, n_estimators=50))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1259496415167329</v>
+        <v>0.122648122766744</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9840000000000001</v>
+        <v>0.991</v>
       </c>
     </row>
   </sheetData>
